--- a/en/application_framework/application_framework/libraries/images/mail/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/mail/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\nablarch-relation\nablarch-document\en\application_framework\application_framework\libraries\images\mail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A4993-87B4-4B68-BC55-D0F299415BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14940" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -130,7 +139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvPr id="83" name="角丸四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -194,7 +209,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="角丸四角形 139"/>
+        <xdr:cNvPr id="140" name="角丸四角形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -258,7 +279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -318,7 +345,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -381,7 +414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="60" idx="3"/>
           <a:endCxn id="61" idx="1"/>
@@ -431,7 +470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -494,7 +539,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17"/>
+        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -558,7 +609,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="2"/>
           <a:endCxn id="18" idx="1"/>
@@ -608,7 +665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="角丸四角形 74"/>
+        <xdr:cNvPr id="75" name="角丸四角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -671,7 +734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="角丸四角形 79"/>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -734,7 +803,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="75" idx="0"/>
@@ -784,7 +859,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="75" idx="3"/>
           <a:endCxn id="80" idx="1"/>
@@ -839,13 +920,519 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2800351" y="647700"/>
           <a:ext cx="2400300" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Change status to sent</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Update the status to sent before</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>sending a mail.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*Execute in another transaction</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800351" y="2143125"/>
+          <a:ext cx="2400300" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Email send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Since there is no transaction during email send, the send process will be executed immediately.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000501" y="1714501"/>
+          <a:ext cx="0" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート : 判断 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="3428999"/>
+          <a:ext cx="2400300" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Send successful?</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4000500" y="3086100"/>
+          <a:ext cx="1" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="3429000"/>
+          <a:ext cx="1800225" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>To the next email send data</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5200650" y="3805238"/>
+          <a:ext cx="600075" cy="4761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="4543425"/>
+          <a:ext cx="2400300" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -871,46 +1458,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="sng" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ステータスを送信済みに変更</a:t>
+            <a:t>Change status to send failed</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" u="sng" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>メール送信前にステータスを送信済みに更新する。</a:t>
+            <a:t>If an exception occurs during email send, change the status to send failed.</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>別トランザクションで実行する</a:t>
+            <a:t>*Execute in another transaction</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -919,441 +1494,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2800351" y="2143125"/>
-          <a:ext cx="2400300" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="sng" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メール送信を行う</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メール送信にトランザクションはないため、即送信処理が実行される。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000501" y="1714501"/>
-          <a:ext cx="0" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="フローチャート : 判断 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2800350" y="3428999"/>
-          <a:ext cx="2400300" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信成功？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4000500" y="3086100"/>
-          <a:ext cx="1" cy="342899"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800725" y="3429000"/>
-          <a:ext cx="1800225" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>次のメール送信データへ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5200650" y="3805238"/>
-          <a:ext cx="600075" cy="4761"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2800350" y="4543425"/>
-          <a:ext cx="2400300" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="sng" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ステータスを送信失敗に変更</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" u="sng" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" u="none" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メール送信時に例外が発生した場合は、ステータスを送信失敗に変更する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" u="none" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" u="none" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" u="none" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>別トランザクションで実行する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" u="none" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -1367,7 +1507,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
           <a:endCxn id="33" idx="0"/>
@@ -1404,26 +1550,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="3600449"/>
-          <a:ext cx="600075" cy="371475"/>
+          <a:off x="5029200" y="3495674"/>
+          <a:ext cx="809625" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,12 +1604,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>成功</a:t>
+            <a:t>Successful</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400" b="0" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1466,25 +1628,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="4171950"/>
-          <a:ext cx="600075" cy="371475"/>
+          <a:off x="3971925" y="4162425"/>
+          <a:ext cx="1209675" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,12 +1681,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>失敗</a:t>
+            <a:t>Failured</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1539,7 +1713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="カギ線コネクタ 2"/>
+        <xdr:cNvPr id="3" name="カギ線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="3"/>
           <a:endCxn id="20" idx="2"/>
@@ -1578,7 +1758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1620,7 +1800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,9 +1833,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1688,6 +1885,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1863,12 +2077,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1886,10 +2098,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="U21:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/en/application_framework/application_framework/libraries/images/mail/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/mail/images.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\nablarch-relation\nablarch-document\en\application_framework\application_framework\libraries\images\mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\en\application_framework\application_framework\libraries\images\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A4993-87B4-4B68-BC55-D0F299415BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D66AD1-A29E-47C5-B317-22E994B47EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -182,13 +195,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メール送信</a:t>
-          </a:r>
+            <a:t>Email send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -252,13 +270,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メール送信要求</a:t>
-          </a:r>
+            <a:t>Request to send e-mail</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -457,14 +480,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171448</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -481,8 +504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800349" y="5381625"/>
-          <a:ext cx="1800225" cy="342900"/>
+          <a:off x="2571748" y="5381625"/>
+          <a:ext cx="2257428" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,7 +540,23 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>（常駐バッチ）</a:t>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>resident batch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -781,7 +820,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>JavaMail API</a:t>
+            <a:t>Jakarta Mail</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2080,7 +2119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BX33" sqref="BX33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
